--- a/TestData/NoticeUpdation.xlsx
+++ b/TestData/NoticeUpdation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Notice No.</t>
   </si>
@@ -166,16 +166,10 @@
     <t>Won</t>
   </si>
   <si>
-    <t>Tax</t>
-  </si>
-  <si>
     <t>Notice as on date 220124</t>
   </si>
   <si>
-    <t>Deepali Dev</t>
-  </si>
-  <si>
-    <t>Notice as on date 300224</t>
+    <t>Mahesh Jadhav</t>
   </si>
 </sst>
 </file>
@@ -566,7 +560,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -710,10 +704,10 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5">
-        <v>7685</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>365736</v>
+      </c>
+      <c r="B2" s="5">
+        <v>23072024</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -731,16 +725,14 @@
         <v>36</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="5"/>

--- a/TestData/NoticeUpdation.xlsx
+++ b/TestData/NoticeUpdation.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Notice Updation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -560,7 +556,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -704,7 +700,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5">
-        <v>365736</v>
+        <v>9818753</v>
       </c>
       <c r="B2" s="5">
         <v>23072024</v>

--- a/TestData/NoticeUpdation.xlsx
+++ b/TestData/NoticeUpdation.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185"/>
   </bookViews>
   <sheets>
     <sheet name="Notice Updation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -556,7 +560,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -700,10 +704,10 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5">
-        <v>9818753</v>
+        <v>29152024</v>
       </c>
       <c r="B2" s="5">
-        <v>23072024</v>
+        <v>13122024</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>

--- a/TestData/NoticeUpdation.xlsx
+++ b/TestData/NoticeUpdation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Notice Updation" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -704,7 +704,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5">
-        <v>29152024</v>
+        <v>34358225</v>
       </c>
       <c r="B2" s="5">
         <v>13122024</v>
